--- a/info.xlsx
+++ b/info.xlsx
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
